--- a/MOCK_DATA2.xlsx
+++ b/MOCK_DATA2.xlsx
@@ -37,7 +37,7 @@
     <t>joining_date</t>
   </si>
   <si>
-    <t>Taufique</t>
+    <t>Sadiq</t>
   </si>
   <si>
     <t>lroot0@istockphoto.com</t>
